--- a/datafiles/Testdata.xlsx
+++ b/datafiles/Testdata.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="4905"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:C6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t xml:space="preserve">username </t>
   </si>
@@ -26,28 +25,31 @@
     <t>res</t>
   </si>
   <si>
-    <t>ramarroyal2@gmail.com</t>
-  </si>
-  <si>
-    <t>Admin@123</t>
+    <t>jagadees.s@outlook.com</t>
+  </si>
+  <si>
+    <t>admin@123</t>
   </si>
   <si>
     <t xml:space="preserve">Vaild </t>
   </si>
   <si>
+    <t>jagadees@gmail.com</t>
+  </si>
+  <si>
     <t>Edmin123</t>
   </si>
   <si>
     <t>Invaild</t>
   </si>
   <si>
-    <t>ram@gmail.com</t>
+    <t>jaga@gmail.com</t>
   </si>
   <si>
     <t>icore*123</t>
   </si>
   <si>
-    <t>ram12345@gmail.com</t>
+    <t>jaga12345@gmail.com</t>
   </si>
   <si>
     <t>Admin@767</t>
@@ -66,8 +68,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -107,14 +109,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,42 +139,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -165,9 +168,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,22 +184,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -207,6 +194,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -214,29 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,19 +265,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,151 +415,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +462,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -475,17 +492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,7 +520,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,56 +559,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,127 +585,127 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,7 +1047,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1078,60 +1080,60 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="ramarroyal2@gmail.com" tooltip="mailto:ramarroyal2@gmail.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Admin@123"/>
-    <hyperlink ref="A3" r:id="rId1" display="ramarroyal2@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="Edmin123"/>
-    <hyperlink ref="B4" r:id="rId2" display="icore*123"/>
-    <hyperlink ref="B5" r:id="rId3" display="Admin@767" tooltip="mailto:Admin@767"/>
-    <hyperlink ref="B6" r:id="rId2" display="AdmIN"/>
-    <hyperlink ref="A4" r:id="rId4" display="ram@gmail.com" tooltip="mailto:ram@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId5" display="ram12345@gmail.com" tooltip="mailto:ram12345@gmail.com"/>
-    <hyperlink ref="A6" r:id="rId6" display="1234@gmail.com" tooltip="mailto:1234@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="jagadees.s@outlook.com" tooltip="mailto:jagadees.s@outlook.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="admin@123" tooltip="mailto:admin@123"/>
+    <hyperlink ref="A3" r:id="rId3" display="jagadees@gmail.com" tooltip="mailto:jagadees@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId4" display="Edmin123"/>
+    <hyperlink ref="B4" r:id="rId4" display="icore*123"/>
+    <hyperlink ref="B5" r:id="rId5" display="Admin@767" tooltip="mailto:Admin@767"/>
+    <hyperlink ref="B6" r:id="rId4" display="AdmIN"/>
+    <hyperlink ref="A4" r:id="rId6" display="jaga@gmail.com" tooltip="mailto:jaga@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId7" display="jaga12345@gmail.com" tooltip="mailto:jaga12345@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId8" display="1234@gmail.com" tooltip="mailto:1234@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
